--- a/biology/Médecine/Jaume_Rotés_Querol/Jaume_Rotés_Querol.xlsx
+++ b/biology/Médecine/Jaume_Rotés_Querol/Jaume_Rotés_Querol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jaume_Rot%C3%A9s_Querol</t>
+          <t>Jaume_Rotés_Querol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jaume Rotés Querol est un médecin catalan né le 15 janvier 1921 à Balaguer et mort le 29 janvier 2008 à Barcelone[1], connu pour ses travaux en rhumatologie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaume Rotés Querol est un médecin catalan né le 15 janvier 1921 à Balaguer et mort le 29 janvier 2008 à Barcelone, connu pour ses travaux en rhumatologie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jaume_Rot%C3%A9s_Querol</t>
+          <t>Jaume_Rotés_Querol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de commerçant, il étudie la médecine à l'université de Barcelone après la guerre civile espagnole. Spécialisé en rhumatologie à Paris en 1948, il a participé à la description de la maladie de Forestier ou maladie de Forestier et Rotes-Quérol appelée aussi hyperostose vertébrale engainante.
 En 1956, il passe une thèse de doctorat à l'Université de Barcelone intitulée : « Contribution à l'étude des manifestations ostéo-articulaires de la brucellose », publiée en 1959. En 1968 il est nommé directeur de l'école de rhumatologie de la faculté de médecine de Barcelone. Il a été président de la « Société espagnole de rhumatologie » et fondateur et directeur de la « Revue espagnole de rhumatologie ». Il était également membre honoraire de l' « American Rheumatism Association » depuis 1980 et en 2000, il crée la « Bibliothèque Rotés Jaime Querol ».
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jaume_Rot%C3%A9s_Querol</t>
+          <t>Jaume_Rotés_Querol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Retalls (ed. de la Magrana, 2009,  (ISBN 9788498674194))
 Tratamiento actual de los reumatismos, para el médico práctico
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jaume_Rot%C3%A9s_Querol</t>
+          <t>Jaume_Rotés_Querol</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Narcís-Monturiol en 1991.
 Croix de Saint-Georges en 2002.</t>
